--- a/DRGsubtype_subtype-injury_transcriptionfactor_DEGs.xlsx
+++ b/DRGsubtype_subtype-injury_transcriptionfactor_DEGs.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="185">
   <si>
     <t xml:space="preserve">baseMean</t>
   </si>
@@ -41,271 +41,541 @@
     <t xml:space="preserve">symbol</t>
   </si>
   <si>
+    <t xml:space="preserve">gene_id</t>
+  </si>
+  <si>
     <t xml:space="preserve">Irf6</t>
   </si>
   <si>
+    <t xml:space="preserve">ENSMUSG00000026638</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bcl11a</t>
   </si>
   <si>
+    <t xml:space="preserve">ENSMUSG00000000861</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hey1</t>
   </si>
   <si>
+    <t xml:space="preserve">ENSMUSG00000040289</t>
+  </si>
+  <si>
     <t xml:space="preserve">Foxo4</t>
   </si>
   <si>
+    <t xml:space="preserve">ENSMUSG00000042903</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bcl11b</t>
   </si>
   <si>
+    <t xml:space="preserve">ENSMUSG00000048251</t>
+  </si>
+  <si>
     <t xml:space="preserve">E2f1</t>
   </si>
   <si>
+    <t xml:space="preserve">ENSMUSG00000027490</t>
+  </si>
+  <si>
     <t xml:space="preserve">Zfp362</t>
   </si>
   <si>
+    <t xml:space="preserve">ENSMUSG00000028799</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sox11</t>
   </si>
   <si>
+    <t xml:space="preserve">ENSMUSG00000063632</t>
+  </si>
+  <si>
     <t xml:space="preserve">Foxp4</t>
   </si>
   <si>
+    <t xml:space="preserve">ENSMUSG00000023991</t>
+  </si>
+  <si>
     <t xml:space="preserve">Zfp933</t>
   </si>
   <si>
+    <t xml:space="preserve">ENSMUSG00000059423</t>
+  </si>
+  <si>
     <t xml:space="preserve">Zbtb7b</t>
   </si>
   <si>
+    <t xml:space="preserve">ENSMUSG00000028042</t>
+  </si>
+  <si>
     <t xml:space="preserve">Zfp367</t>
   </si>
   <si>
+    <t xml:space="preserve">ENSMUSG00000044934</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hoxb5</t>
   </si>
   <si>
+    <t xml:space="preserve">ENSMUSG00000038700</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nr6a1</t>
   </si>
   <si>
+    <t xml:space="preserve">ENSMUSG00000063972</t>
+  </si>
+  <si>
     <t xml:space="preserve">Elk1</t>
   </si>
   <si>
+    <t xml:space="preserve">ENSMUSG00000009406</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hsf4</t>
   </si>
   <si>
+    <t xml:space="preserve">ENSMUSG00000033249</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hoxc4</t>
   </si>
   <si>
+    <t xml:space="preserve">ENSMUSG00000075394</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nfix</t>
   </si>
   <si>
+    <t xml:space="preserve">ENSMUSG00000001911</t>
+  </si>
+  <si>
     <t xml:space="preserve">Six1</t>
   </si>
   <si>
+    <t xml:space="preserve">ENSMUSG00000051367</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ahr</t>
   </si>
   <si>
+    <t xml:space="preserve">ENSMUSG00000019256</t>
+  </si>
+  <si>
     <t xml:space="preserve">Yy1</t>
   </si>
   <si>
+    <t xml:space="preserve">ENSMUSG00000021264</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hoxc8</t>
   </si>
   <si>
+    <t xml:space="preserve">ENSMUSG00000001657</t>
+  </si>
+  <si>
     <t xml:space="preserve">Rfx5</t>
   </si>
   <si>
+    <t xml:space="preserve">ENSMUSG00000005774</t>
+  </si>
+  <si>
     <t xml:space="preserve">Srebf2</t>
   </si>
   <si>
+    <t xml:space="preserve">ENSMUSG00000022463</t>
+  </si>
+  <si>
     <t xml:space="preserve">Maff</t>
   </si>
   <si>
+    <t xml:space="preserve">ENSMUSG00000042622</t>
+  </si>
+  <si>
     <t xml:space="preserve">Pou6f1</t>
   </si>
   <si>
+    <t xml:space="preserve">ENSMUSG00000009739</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mypop</t>
   </si>
   <si>
+    <t xml:space="preserve">ENSMUSG00000048481</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tcf12</t>
   </si>
   <si>
+    <t xml:space="preserve">ENSMUSG00000032228</t>
+  </si>
+  <si>
     <t xml:space="preserve">Csrnp3</t>
   </si>
   <si>
+    <t xml:space="preserve">ENSMUSG00000044647</t>
+  </si>
+  <si>
     <t xml:space="preserve">Atf3</t>
   </si>
   <si>
+    <t xml:space="preserve">ENSMUSG00000026628</t>
+  </si>
+  <si>
     <t xml:space="preserve">Twist2</t>
   </si>
   <si>
+    <t xml:space="preserve">ENSMUSG00000007805</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nfyc</t>
   </si>
   <si>
+    <t xml:space="preserve">ENSMUSG00000032897</t>
+  </si>
+  <si>
     <t xml:space="preserve">Etv3</t>
   </si>
   <si>
+    <t xml:space="preserve">ENSMUSG00000003382</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tfdp2</t>
   </si>
   <si>
+    <t xml:space="preserve">ENSMUSG00000032411</t>
+  </si>
+  <si>
     <t xml:space="preserve">Aff3</t>
   </si>
   <si>
+    <t xml:space="preserve">ENSMUSG00000037138</t>
+  </si>
+  <si>
     <t xml:space="preserve">Atf5</t>
   </si>
   <si>
+    <t xml:space="preserve">ENSMUSG00000038539</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tcerg1</t>
   </si>
   <si>
+    <t xml:space="preserve">ENSMUSG00000024498</t>
+  </si>
+  <si>
     <t xml:space="preserve">Smad3</t>
   </si>
   <si>
+    <t xml:space="preserve">ENSMUSG00000032402</t>
+  </si>
+  <si>
     <t xml:space="preserve">Stat3</t>
   </si>
   <si>
+    <t xml:space="preserve">ENSMUSG00000004040</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hoxa2</t>
   </si>
   <si>
+    <t xml:space="preserve">ENSMUSG00000014704</t>
+  </si>
+  <si>
     <t xml:space="preserve">Foxp3</t>
   </si>
   <si>
+    <t xml:space="preserve">ENSMUSG00000039521</t>
+  </si>
+  <si>
     <t xml:space="preserve">Zbtb16</t>
   </si>
   <si>
+    <t xml:space="preserve">ENSMUSG00000066687</t>
+  </si>
+  <si>
     <t xml:space="preserve">Zfp366</t>
   </si>
   <si>
+    <t xml:space="preserve">ENSMUSG00000050919</t>
+  </si>
+  <si>
     <t xml:space="preserve">Gata1</t>
   </si>
   <si>
+    <t xml:space="preserve">ENSMUSG00000031162</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hoxd9</t>
   </si>
   <si>
+    <t xml:space="preserve">ENSMUSG00000043342</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ecsit</t>
   </si>
   <si>
+    <t xml:space="preserve">ENSMUSG00000066839</t>
+  </si>
+  <si>
     <t xml:space="preserve">Fosl1</t>
   </si>
   <si>
+    <t xml:space="preserve">ENSMUSG00000024912</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hinfp</t>
   </si>
   <si>
+    <t xml:space="preserve">ENSMUSG00000032119</t>
+  </si>
+  <si>
     <t xml:space="preserve">Zfp738</t>
   </si>
   <si>
+    <t xml:space="preserve">ENSMUSG00000048280</t>
+  </si>
+  <si>
     <t xml:space="preserve">Pbx4</t>
   </si>
   <si>
+    <t xml:space="preserve">ENSMUSG00000031860</t>
+  </si>
+  <si>
     <t xml:space="preserve">Rora</t>
   </si>
   <si>
+    <t xml:space="preserve">ENSMUSG00000032238</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nfil3</t>
   </si>
   <si>
+    <t xml:space="preserve">ENSMUSG00000056749</t>
+  </si>
+  <si>
     <t xml:space="preserve">Pax8</t>
   </si>
   <si>
+    <t xml:space="preserve">ENSMUSG00000026976</t>
+  </si>
+  <si>
     <t xml:space="preserve">Zfp748</t>
   </si>
   <si>
+    <t xml:space="preserve">ENSMUSG00000095432</t>
+  </si>
+  <si>
     <t xml:space="preserve">Relb</t>
   </si>
   <si>
+    <t xml:space="preserve">ENSMUSG00000002983</t>
+  </si>
+  <si>
     <t xml:space="preserve">Onecut2</t>
   </si>
   <si>
+    <t xml:space="preserve">ENSMUSG00000045991</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nfe2l3</t>
   </si>
   <si>
+    <t xml:space="preserve">ENSMUSG00000029832</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mef2d</t>
   </si>
   <si>
+    <t xml:space="preserve">ENSMUSG00000001419</t>
+  </si>
+  <si>
     <t xml:space="preserve">E2f5</t>
   </si>
   <si>
+    <t xml:space="preserve">ENSMUSG00000027552</t>
+  </si>
+  <si>
     <t xml:space="preserve">Lmx1b</t>
   </si>
   <si>
+    <t xml:space="preserve">ENSMUSG00000038765</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nr1i2</t>
   </si>
   <si>
+    <t xml:space="preserve">ENSMUSG00000022809</t>
+  </si>
+  <si>
     <t xml:space="preserve">Elk3</t>
   </si>
   <si>
+    <t xml:space="preserve">ENSMUSG00000008398</t>
+  </si>
+  <si>
     <t xml:space="preserve">Glis3</t>
   </si>
   <si>
+    <t xml:space="preserve">ENSMUSG00000052942</t>
+  </si>
+  <si>
     <t xml:space="preserve">Spic</t>
   </si>
   <si>
+    <t xml:space="preserve">ENSMUSG00000004359</t>
+  </si>
+  <si>
     <t xml:space="preserve">Foxc2</t>
   </si>
   <si>
+    <t xml:space="preserve">ENSMUSG00000046714</t>
+  </si>
+  <si>
     <t xml:space="preserve">Batf</t>
   </si>
   <si>
+    <t xml:space="preserve">ENSMUSG00000034266</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hoxb6</t>
   </si>
   <si>
+    <t xml:space="preserve">ENSMUSG00000000690</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sox9</t>
   </si>
   <si>
+    <t xml:space="preserve">ENSMUSG00000000567</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hlf</t>
   </si>
   <si>
+    <t xml:space="preserve">ENSMUSG00000003949</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hif3a</t>
   </si>
   <si>
+    <t xml:space="preserve">ENSMUSG00000004328</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tcf7</t>
   </si>
   <si>
+    <t xml:space="preserve">ENSMUSG00000000782</t>
+  </si>
+  <si>
     <t xml:space="preserve">Foxj1</t>
   </si>
   <si>
+    <t xml:space="preserve">ENSMUSG00000034227</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hoxd4</t>
   </si>
   <si>
+    <t xml:space="preserve">ENSMUSG00000101174</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cebpb</t>
   </si>
   <si>
+    <t xml:space="preserve">ENSMUSG00000056501</t>
+  </si>
+  <si>
     <t xml:space="preserve">Erf</t>
   </si>
   <si>
+    <t xml:space="preserve">ENSMUSG00000040857</t>
+  </si>
+  <si>
     <t xml:space="preserve">Myb</t>
   </si>
   <si>
+    <t xml:space="preserve">ENSMUSG00000019982</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nrl</t>
   </si>
   <si>
+    <t xml:space="preserve">ENSMUSG00000040632</t>
+  </si>
+  <si>
     <t xml:space="preserve">Zfp708</t>
   </si>
   <si>
+    <t xml:space="preserve">ENSMUSG00000058883</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tbx21</t>
   </si>
   <si>
+    <t xml:space="preserve">ENSMUSG00000001444</t>
+  </si>
+  <si>
     <t xml:space="preserve">Meox1</t>
   </si>
   <si>
+    <t xml:space="preserve">ENSMUSG00000001493</t>
+  </si>
+  <si>
     <t xml:space="preserve">Rfx4</t>
   </si>
   <si>
+    <t xml:space="preserve">ENSMUSG00000020037</t>
+  </si>
+  <si>
     <t xml:space="preserve">Klf12</t>
   </si>
   <si>
+    <t xml:space="preserve">ENSMUSG00000072294</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nfe2</t>
   </si>
   <si>
+    <t xml:space="preserve">ENSMUSG00000058794</t>
+  </si>
+  <si>
     <t xml:space="preserve">Neurog3</t>
   </si>
   <si>
+    <t xml:space="preserve">ENSMUSG00000044312</t>
+  </si>
+  <si>
     <t xml:space="preserve">Zfp408</t>
   </si>
   <si>
+    <t xml:space="preserve">ENSMUSG00000075040</t>
+  </si>
+  <si>
     <t xml:space="preserve">Creb3l4</t>
   </si>
   <si>
+    <t xml:space="preserve">ENSMUSG00000027938</t>
+  </si>
+  <si>
     <t xml:space="preserve">Spi1</t>
   </si>
   <si>
+    <t xml:space="preserve">ENSMUSG00000002111</t>
+  </si>
+  <si>
     <t xml:space="preserve">Foxo6</t>
   </si>
   <si>
+    <t xml:space="preserve">ENSMUSG00000052135</t>
+  </si>
+  <si>
     <t xml:space="preserve">Irf8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSMUSG00000041515</t>
   </si>
 </sst>
 </file>
@@ -656,6 +926,9 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -674,7 +947,10 @@
         <v>0.00000000412866131594852</v>
       </c>
       <c r="F2" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -694,7 +970,10 @@
         <v>0.0000104540627161615</v>
       </c>
       <c r="F3" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -714,7 +993,10 @@
         <v>0.00000000113150404448298</v>
       </c>
       <c r="F4" t="s">
-        <v>8</v>
+        <v>11</v>
+      </c>
+      <c r="G4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="5">
@@ -734,7 +1016,10 @@
         <v>0.0000593979316627401</v>
       </c>
       <c r="F5" t="s">
-        <v>9</v>
+        <v>13</v>
+      </c>
+      <c r="G5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="6">
@@ -754,7 +1039,10 @@
         <v>0.000146094345660206</v>
       </c>
       <c r="F6" t="s">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="G6" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="7">
@@ -774,7 +1062,10 @@
         <v>0.0000018415261985303</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
+        <v>17</v>
+      </c>
+      <c r="G7" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="8">
@@ -794,7 +1085,10 @@
         <v>0.0000105427983442779</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>19</v>
+      </c>
+      <c r="G8" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="9">
@@ -814,7 +1108,10 @@
         <v>0.00021909222775386</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>21</v>
+      </c>
+      <c r="G9" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="10">
@@ -834,7 +1131,10 @@
         <v>0.00181566676385293</v>
       </c>
       <c r="F10" t="s">
-        <v>14</v>
+        <v>23</v>
+      </c>
+      <c r="G10" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="11">
@@ -854,7 +1154,10 @@
         <v>0.00000273677227483019</v>
       </c>
       <c r="F11" t="s">
-        <v>15</v>
+        <v>25</v>
+      </c>
+      <c r="G11" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="12">
@@ -874,7 +1177,10 @@
         <v>0.0000105857224664246</v>
       </c>
       <c r="F12" t="s">
-        <v>16</v>
+        <v>27</v>
+      </c>
+      <c r="G12" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="13">
@@ -894,7 +1200,10 @@
         <v>0.00000149782463366668</v>
       </c>
       <c r="F13" t="s">
-        <v>17</v>
+        <v>29</v>
+      </c>
+      <c r="G13" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="14">
@@ -914,7 +1223,10 @@
         <v>0.00023991033104676</v>
       </c>
       <c r="F14" t="s">
-        <v>18</v>
+        <v>31</v>
+      </c>
+      <c r="G14" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="15">
@@ -934,7 +1246,10 @@
         <v>0.00940775220182383</v>
       </c>
       <c r="F15" t="s">
-        <v>19</v>
+        <v>33</v>
+      </c>
+      <c r="G15" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="16">
@@ -954,7 +1269,10 @@
         <v>0.0306651609562153</v>
       </c>
       <c r="F16" t="s">
-        <v>20</v>
+        <v>35</v>
+      </c>
+      <c r="G16" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="17">
@@ -974,7 +1292,10 @@
         <v>0.0000610469310070605</v>
       </c>
       <c r="F17" t="s">
-        <v>21</v>
+        <v>37</v>
+      </c>
+      <c r="G17" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="18">
@@ -994,7 +1315,10 @@
         <v>0.011760305605468</v>
       </c>
       <c r="F18" t="s">
-        <v>22</v>
+        <v>39</v>
+      </c>
+      <c r="G18" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="19">
@@ -1014,7 +1338,10 @@
         <v>0.00565324540143065</v>
       </c>
       <c r="F19" t="s">
-        <v>23</v>
+        <v>41</v>
+      </c>
+      <c r="G19" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="20">
@@ -1034,7 +1361,10 @@
         <v>0.000287317829468618</v>
       </c>
       <c r="F20" t="s">
-        <v>24</v>
+        <v>43</v>
+      </c>
+      <c r="G20" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="21">
@@ -1054,7 +1384,10 @@
         <v>0.0288527426184697</v>
       </c>
       <c r="F21" t="s">
-        <v>25</v>
+        <v>45</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="22">
@@ -1074,7 +1407,10 @@
         <v>0.0010621545429589</v>
       </c>
       <c r="F22" t="s">
-        <v>26</v>
+        <v>47</v>
+      </c>
+      <c r="G22" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="23">
@@ -1094,7 +1430,10 @@
         <v>0.0140137507022772</v>
       </c>
       <c r="F23" t="s">
-        <v>27</v>
+        <v>49</v>
+      </c>
+      <c r="G23" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="24">
@@ -1114,7 +1453,10 @@
         <v>0.0220891265123954</v>
       </c>
       <c r="F24" t="s">
-        <v>28</v>
+        <v>51</v>
+      </c>
+      <c r="G24" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="25">
@@ -1134,7 +1476,10 @@
         <v>0.000486712325035104</v>
       </c>
       <c r="F25" t="s">
-        <v>29</v>
+        <v>53</v>
+      </c>
+      <c r="G25" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="26">
@@ -1154,7 +1499,10 @@
         <v>0.0317963175662567</v>
       </c>
       <c r="F26" t="s">
-        <v>30</v>
+        <v>55</v>
+      </c>
+      <c r="G26" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="27">
@@ -1174,7 +1522,10 @@
         <v>0.0243655151228988</v>
       </c>
       <c r="F27" t="s">
-        <v>31</v>
+        <v>57</v>
+      </c>
+      <c r="G27" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="28">
@@ -1194,7 +1545,10 @@
         <v>0.00664232022426412</v>
       </c>
       <c r="F28" t="s">
-        <v>32</v>
+        <v>59</v>
+      </c>
+      <c r="G28" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="29">
@@ -1214,7 +1568,10 @@
         <v>0.0410608975461111</v>
       </c>
       <c r="F29" t="s">
-        <v>33</v>
+        <v>61</v>
+      </c>
+      <c r="G29" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="30">
@@ -1234,7 +1591,10 @@
         <v>0.0128180718548531</v>
       </c>
       <c r="F30" t="s">
-        <v>34</v>
+        <v>63</v>
+      </c>
+      <c r="G30" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="31">
@@ -1254,7 +1614,10 @@
         <v>0.0439857538430636</v>
       </c>
       <c r="F31" t="s">
-        <v>35</v>
+        <v>65</v>
+      </c>
+      <c r="G31" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="32">
@@ -1274,7 +1637,10 @@
         <v>0.00792008771766867</v>
       </c>
       <c r="F32" t="s">
-        <v>36</v>
+        <v>67</v>
+      </c>
+      <c r="G32" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="33">
@@ -1294,7 +1660,10 @@
         <v>0.048839485173577</v>
       </c>
       <c r="F33" t="s">
-        <v>37</v>
+        <v>69</v>
+      </c>
+      <c r="G33" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="34">
@@ -1314,7 +1683,10 @@
         <v>0.0410273115546882</v>
       </c>
       <c r="F34" t="s">
-        <v>38</v>
+        <v>71</v>
+      </c>
+      <c r="G34" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="35">
@@ -1334,7 +1706,10 @@
         <v>0.0155678605496588</v>
       </c>
       <c r="F35" t="s">
-        <v>39</v>
+        <v>73</v>
+      </c>
+      <c r="G35" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="36">
@@ -1354,7 +1729,10 @@
         <v>0.0423566292872615</v>
       </c>
       <c r="F36" t="s">
-        <v>40</v>
+        <v>75</v>
+      </c>
+      <c r="G36" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="37">
@@ -1374,7 +1752,10 @@
         <v>0.0392974586446087</v>
       </c>
       <c r="F37" t="s">
-        <v>41</v>
+        <v>77</v>
+      </c>
+      <c r="G37" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="38">
@@ -1394,7 +1775,10 @@
         <v>0.0211361490217998</v>
       </c>
       <c r="F38" t="s">
-        <v>42</v>
+        <v>79</v>
+      </c>
+      <c r="G38" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="39">
@@ -1414,7 +1798,10 @@
         <v>0.0453637658282608</v>
       </c>
       <c r="F39" t="s">
-        <v>43</v>
+        <v>81</v>
+      </c>
+      <c r="G39" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="40">
@@ -1434,7 +1821,10 @@
         <v>0.00904466039129092</v>
       </c>
       <c r="F40" t="s">
-        <v>44</v>
+        <v>83</v>
+      </c>
+      <c r="G40" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1470,6 +1860,9 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -1488,7 +1881,10 @@
         <v>0.00000000000000097906918144523</v>
       </c>
       <c r="F2" t="s">
-        <v>35</v>
+        <v>65</v>
+      </c>
+      <c r="G2" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="3">
@@ -1508,7 +1904,10 @@
         <v>0.00171528082629121</v>
       </c>
       <c r="F3" t="s">
-        <v>73</v>
+        <v>141</v>
+      </c>
+      <c r="G3" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="4">
@@ -1528,7 +1927,10 @@
         <v>0.000160855809374229</v>
       </c>
       <c r="F4" t="s">
-        <v>52</v>
+        <v>99</v>
+      </c>
+      <c r="G4" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="5">
@@ -1548,7 +1950,10 @@
         <v>0.0246501270175962</v>
       </c>
       <c r="F5" t="s">
-        <v>86</v>
+        <v>167</v>
+      </c>
+      <c r="G5" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="6">
@@ -1568,7 +1973,10 @@
         <v>0.0146191803176803</v>
       </c>
       <c r="F6" t="s">
-        <v>87</v>
+        <v>169</v>
+      </c>
+      <c r="G6" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="7">
@@ -1588,7 +1996,10 @@
         <v>0.00243176040564636</v>
       </c>
       <c r="F7" t="s">
-        <v>88</v>
+        <v>171</v>
+      </c>
+      <c r="G7" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="8">
@@ -1608,7 +2019,10 @@
         <v>0.0000134448778032155</v>
       </c>
       <c r="F8" t="s">
-        <v>89</v>
+        <v>173</v>
+      </c>
+      <c r="G8" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="9">
@@ -1628,7 +2042,10 @@
         <v>0.0462639811836574</v>
       </c>
       <c r="F9" t="s">
-        <v>90</v>
+        <v>175</v>
+      </c>
+      <c r="G9" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="10">
@@ -1648,7 +2065,10 @@
         <v>0.00146036234444488</v>
       </c>
       <c r="F10" t="s">
-        <v>91</v>
+        <v>177</v>
+      </c>
+      <c r="G10" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="11">
@@ -1668,7 +2088,10 @@
         <v>0.0267351406239874</v>
       </c>
       <c r="F11" t="s">
-        <v>92</v>
+        <v>179</v>
+      </c>
+      <c r="G11" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="12">
@@ -1688,7 +2111,10 @@
         <v>0.0421763263113951</v>
       </c>
       <c r="F12" t="s">
-        <v>93</v>
+        <v>181</v>
+      </c>
+      <c r="G12" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="13">
@@ -1708,7 +2134,10 @@
         <v>0.00142339288817252</v>
       </c>
       <c r="F13" t="s">
-        <v>94</v>
+        <v>183</v>
+      </c>
+      <c r="G13" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="14">
@@ -1728,7 +2157,10 @@
         <v>0.0095527893812623</v>
       </c>
       <c r="F14" t="s">
-        <v>71</v>
+        <v>137</v>
+      </c>
+      <c r="G14" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="15">
@@ -1748,7 +2180,10 @@
         <v>0.0000718265394938218</v>
       </c>
       <c r="F15" t="s">
-        <v>70</v>
+        <v>135</v>
+      </c>
+      <c r="G15" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -1784,6 +2219,9 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -1802,7 +2240,10 @@
         <v>0.00254530162071653</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>85</v>
+      </c>
+      <c r="G2" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1838,6 +2279,9 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -1856,7 +2300,10 @@
         <v>0.00000000000000000000000658334348032034</v>
       </c>
       <c r="F2" t="s">
-        <v>46</v>
+        <v>87</v>
+      </c>
+      <c r="G2" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="3">
@@ -1876,7 +2323,10 @@
         <v>0.0000330206098724623</v>
       </c>
       <c r="F3" t="s">
-        <v>47</v>
+        <v>89</v>
+      </c>
+      <c r="G3" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="4">
@@ -1896,7 +2346,10 @@
         <v>0.000000000000220313201627792</v>
       </c>
       <c r="F4" t="s">
-        <v>48</v>
+        <v>91</v>
+      </c>
+      <c r="G4" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="5">
@@ -1916,7 +2369,10 @@
         <v>0.00000551890470309873</v>
       </c>
       <c r="F5" t="s">
-        <v>49</v>
+        <v>93</v>
+      </c>
+      <c r="G5" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="6">
@@ -1936,7 +2392,10 @@
         <v>0.000942410535697366</v>
       </c>
       <c r="F6" t="s">
-        <v>36</v>
+        <v>67</v>
+      </c>
+      <c r="G6" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="7">
@@ -1956,7 +2415,10 @@
         <v>0.0000156422311752867</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
+        <v>21</v>
+      </c>
+      <c r="G7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="8">
@@ -1976,7 +2438,10 @@
         <v>0.0000268026199618498</v>
       </c>
       <c r="F8" t="s">
-        <v>50</v>
+        <v>95</v>
+      </c>
+      <c r="G8" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="9">
@@ -1996,7 +2461,10 @@
         <v>0.00000176245523207661</v>
       </c>
       <c r="F9" t="s">
-        <v>15</v>
+        <v>25</v>
+      </c>
+      <c r="G9" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="10">
@@ -2016,7 +2484,10 @@
         <v>0.0000000350092717642822</v>
       </c>
       <c r="F10" t="s">
-        <v>51</v>
+        <v>97</v>
+      </c>
+      <c r="G10" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="11">
@@ -2036,7 +2507,10 @@
         <v>0.000569584571492384</v>
       </c>
       <c r="F11" t="s">
-        <v>52</v>
+        <v>99</v>
+      </c>
+      <c r="G11" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="12">
@@ -2056,7 +2530,10 @@
         <v>0.000294502807335335</v>
       </c>
       <c r="F12" t="s">
-        <v>53</v>
+        <v>101</v>
+      </c>
+      <c r="G12" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="13">
@@ -2076,7 +2553,10 @@
         <v>0.00244348266081252</v>
       </c>
       <c r="F13" t="s">
-        <v>25</v>
+        <v>45</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="14">
@@ -2096,7 +2576,10 @@
         <v>0.000996542475877894</v>
       </c>
       <c r="F14" t="s">
-        <v>54</v>
+        <v>103</v>
+      </c>
+      <c r="G14" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="15">
@@ -2116,7 +2599,10 @@
         <v>0.00704863779387147</v>
       </c>
       <c r="F15" t="s">
-        <v>19</v>
+        <v>33</v>
+      </c>
+      <c r="G15" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="16">
@@ -2136,7 +2622,10 @@
         <v>0.000475371174320893</v>
       </c>
       <c r="F16" t="s">
-        <v>55</v>
+        <v>105</v>
+      </c>
+      <c r="G16" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="17">
@@ -2156,7 +2645,10 @@
         <v>0.00338446264817089</v>
       </c>
       <c r="F17" t="s">
-        <v>56</v>
+        <v>107</v>
+      </c>
+      <c r="G17" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="18">
@@ -2176,7 +2668,10 @@
         <v>0.0155251361736304</v>
       </c>
       <c r="F18" t="s">
-        <v>57</v>
+        <v>109</v>
+      </c>
+      <c r="G18" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="19">
@@ -2196,7 +2691,10 @@
         <v>0.00702848112109211</v>
       </c>
       <c r="F19" t="s">
-        <v>28</v>
+        <v>51</v>
+      </c>
+      <c r="G19" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="20">
@@ -2216,7 +2714,10 @@
         <v>0.0112536777893826</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
+        <v>17</v>
+      </c>
+      <c r="G20" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="21">
@@ -2236,7 +2737,10 @@
         <v>0.0158402963375299</v>
       </c>
       <c r="F21" t="s">
-        <v>58</v>
+        <v>111</v>
+      </c>
+      <c r="G21" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="22">
@@ -2256,7 +2760,10 @@
         <v>0.00863427868391043</v>
       </c>
       <c r="F22" t="s">
-        <v>59</v>
+        <v>113</v>
+      </c>
+      <c r="G22" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="23">
@@ -2276,7 +2783,10 @@
         <v>0.0164595422790668</v>
       </c>
       <c r="F23" t="s">
-        <v>35</v>
+        <v>65</v>
+      </c>
+      <c r="G23" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="24">
@@ -2296,7 +2806,10 @@
         <v>0.00448974669656112</v>
       </c>
       <c r="F24" t="s">
-        <v>18</v>
+        <v>31</v>
+      </c>
+      <c r="G24" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="25">
@@ -2316,7 +2829,10 @@
         <v>0.0288313975093867</v>
       </c>
       <c r="F25" t="s">
-        <v>12</v>
+        <v>19</v>
+      </c>
+      <c r="G25" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="26">
@@ -2336,7 +2852,10 @@
         <v>0.0429857734775633</v>
       </c>
       <c r="F26" t="s">
-        <v>60</v>
+        <v>115</v>
+      </c>
+      <c r="G26" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="27">
@@ -2356,7 +2875,10 @@
         <v>0.0181934152056379</v>
       </c>
       <c r="F27" t="s">
-        <v>61</v>
+        <v>117</v>
+      </c>
+      <c r="G27" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="28">
@@ -2376,7 +2898,10 @@
         <v>0.037358282443926</v>
       </c>
       <c r="F28" t="s">
-        <v>37</v>
+        <v>69</v>
+      </c>
+      <c r="G28" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="29">
@@ -2396,7 +2921,10 @@
         <v>0.0302427356954437</v>
       </c>
       <c r="F29" t="s">
-        <v>62</v>
+        <v>119</v>
+      </c>
+      <c r="G29" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="30">
@@ -2416,7 +2944,10 @@
         <v>0.0408121265597642</v>
       </c>
       <c r="F30" t="s">
-        <v>63</v>
+        <v>121</v>
+      </c>
+      <c r="G30" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="31">
@@ -2436,7 +2967,10 @@
         <v>0.0148258242892562</v>
       </c>
       <c r="F31" t="s">
-        <v>64</v>
+        <v>123</v>
+      </c>
+      <c r="G31" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="32">
@@ -2456,7 +2990,10 @@
         <v>0.0451475894108559</v>
       </c>
       <c r="F32" t="s">
-        <v>65</v>
+        <v>125</v>
+      </c>
+      <c r="G32" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="33">
@@ -2476,7 +3013,10 @@
         <v>0.0157929517894279</v>
       </c>
       <c r="F33" t="s">
-        <v>45</v>
+        <v>85</v>
+      </c>
+      <c r="G33" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -2512,6 +3052,9 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -2530,7 +3073,10 @@
         <v>0.00172870184044177</v>
       </c>
       <c r="F2" t="s">
-        <v>35</v>
+        <v>65</v>
+      </c>
+      <c r="G2" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="3">
@@ -2550,7 +3096,10 @@
         <v>0.019520589177761</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>21</v>
+      </c>
+      <c r="G3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="4">
@@ -2570,7 +3119,10 @@
         <v>0.0139719374522964</v>
       </c>
       <c r="F4" t="s">
-        <v>66</v>
+        <v>127</v>
+      </c>
+      <c r="G4" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="5">
@@ -2590,7 +3142,10 @@
         <v>0.030110623205887</v>
       </c>
       <c r="F5" t="s">
-        <v>67</v>
+        <v>129</v>
+      </c>
+      <c r="G5" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="6">
@@ -2610,7 +3165,10 @@
         <v>0.00604936378754996</v>
       </c>
       <c r="F6" t="s">
-        <v>68</v>
+        <v>131</v>
+      </c>
+      <c r="G6" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="7">
@@ -2630,7 +3188,10 @@
         <v>0.0292240964577826</v>
       </c>
       <c r="F7" t="s">
-        <v>36</v>
+        <v>67</v>
+      </c>
+      <c r="G7" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="8">
@@ -2650,7 +3211,10 @@
         <v>0.000000192170515887538</v>
       </c>
       <c r="F8" t="s">
-        <v>45</v>
+        <v>85</v>
+      </c>
+      <c r="G8" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="9">
@@ -2670,7 +3234,10 @@
         <v>0.0000639142182216742</v>
       </c>
       <c r="F9" t="s">
-        <v>69</v>
+        <v>133</v>
+      </c>
+      <c r="G9" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="10">
@@ -2690,7 +3257,10 @@
         <v>0.0000488618119315256</v>
       </c>
       <c r="F10" t="s">
-        <v>70</v>
+        <v>135</v>
+      </c>
+      <c r="G10" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="11">
@@ -2710,7 +3280,10 @@
         <v>0.000548142034003751</v>
       </c>
       <c r="F11" t="s">
-        <v>71</v>
+        <v>137</v>
+      </c>
+      <c r="G11" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -2746,6 +3319,9 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -2764,7 +3340,10 @@
         <v>0.000000070242479111264</v>
       </c>
       <c r="F2" t="s">
-        <v>35</v>
+        <v>65</v>
+      </c>
+      <c r="G2" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="3">
@@ -2784,7 +3363,10 @@
         <v>0.00800664200828876</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>21</v>
+      </c>
+      <c r="G3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="4">
@@ -2804,7 +3386,10 @@
         <v>0.0229588989554994</v>
       </c>
       <c r="F4" t="s">
-        <v>72</v>
+        <v>139</v>
+      </c>
+      <c r="G4" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="5">
@@ -2824,7 +3409,10 @@
         <v>0.000000121281107012682</v>
       </c>
       <c r="F5" t="s">
-        <v>70</v>
+        <v>135</v>
+      </c>
+      <c r="G5" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="6">
@@ -2844,7 +3432,10 @@
         <v>0.0145407363513101</v>
       </c>
       <c r="F6" t="s">
-        <v>71</v>
+        <v>137</v>
+      </c>
+      <c r="G6" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -2880,6 +3471,9 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -2898,7 +3492,10 @@
         <v>0.00129153026774878</v>
       </c>
       <c r="F2" t="s">
-        <v>35</v>
+        <v>65</v>
+      </c>
+      <c r="G2" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="3">
@@ -2918,7 +3515,10 @@
         <v>0.0262465941721757</v>
       </c>
       <c r="F3" t="s">
-        <v>73</v>
+        <v>141</v>
+      </c>
+      <c r="G3" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="4">
@@ -2938,7 +3538,10 @@
         <v>0.00000284637673866757</v>
       </c>
       <c r="F4" t="s">
-        <v>74</v>
+        <v>143</v>
+      </c>
+      <c r="G4" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="5">
@@ -2958,7 +3561,10 @@
         <v>0.0367631953667426</v>
       </c>
       <c r="F5" t="s">
-        <v>71</v>
+        <v>137</v>
+      </c>
+      <c r="G5" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="6">
@@ -2978,7 +3584,10 @@
         <v>0.0127221627438998</v>
       </c>
       <c r="F6" t="s">
-        <v>70</v>
+        <v>135</v>
+      </c>
+      <c r="G6" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="7">
@@ -2998,7 +3607,10 @@
         <v>0.00127851236027709</v>
       </c>
       <c r="F7" t="s">
-        <v>69</v>
+        <v>133</v>
+      </c>
+      <c r="G7" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -3034,6 +3646,9 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -3052,7 +3667,10 @@
         <v>0.000000268674279546261</v>
       </c>
       <c r="F2" t="s">
-        <v>35</v>
+        <v>65</v>
+      </c>
+      <c r="G2" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="3">
@@ -3072,7 +3690,10 @@
         <v>0.0137654093662275</v>
       </c>
       <c r="F3" t="s">
-        <v>73</v>
+        <v>141</v>
+      </c>
+      <c r="G3" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="4">
@@ -3092,7 +3713,10 @@
         <v>0.0166344980236702</v>
       </c>
       <c r="F4" t="s">
-        <v>75</v>
+        <v>145</v>
+      </c>
+      <c r="G4" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="5">
@@ -3112,7 +3736,10 @@
         <v>0.0171159417960672</v>
       </c>
       <c r="F5" t="s">
-        <v>52</v>
+        <v>99</v>
+      </c>
+      <c r="G5" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="6">
@@ -3132,7 +3759,10 @@
         <v>0.0372267392961192</v>
       </c>
       <c r="F6" t="s">
-        <v>48</v>
+        <v>91</v>
+      </c>
+      <c r="G6" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="7">
@@ -3152,7 +3782,10 @@
         <v>0.0026864181537859</v>
       </c>
       <c r="F7" t="s">
-        <v>76</v>
+        <v>147</v>
+      </c>
+      <c r="G7" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="8">
@@ -3172,7 +3805,10 @@
         <v>0.00152582600772514</v>
       </c>
       <c r="F8" t="s">
-        <v>69</v>
+        <v>133</v>
+      </c>
+      <c r="G8" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -3208,6 +3844,9 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -3226,7 +3865,10 @@
         <v>0.0000748052626122248</v>
       </c>
       <c r="F2" t="s">
-        <v>70</v>
+        <v>135</v>
+      </c>
+      <c r="G2" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="3">
@@ -3246,7 +3888,10 @@
         <v>0.000127412692359792</v>
       </c>
       <c r="F3" t="s">
-        <v>69</v>
+        <v>133</v>
+      </c>
+      <c r="G3" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -3282,6 +3927,9 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -3300,7 +3948,10 @@
         <v>0.000000000129634712056021</v>
       </c>
       <c r="F2" t="s">
-        <v>35</v>
+        <v>65</v>
+      </c>
+      <c r="G2" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="3">
@@ -3320,7 +3971,10 @@
         <v>0.000484026656208202</v>
       </c>
       <c r="F3" t="s">
-        <v>77</v>
+        <v>149</v>
+      </c>
+      <c r="G3" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="4">
@@ -3340,7 +3994,10 @@
         <v>0.00382393350313498</v>
       </c>
       <c r="F4" t="s">
-        <v>73</v>
+        <v>141</v>
+      </c>
+      <c r="G4" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="5">
@@ -3360,7 +4017,10 @@
         <v>0.0105222738781341</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="6">
@@ -3380,7 +4040,10 @@
         <v>0.0272468485886865</v>
       </c>
       <c r="F6" t="s">
-        <v>78</v>
+        <v>151</v>
+      </c>
+      <c r="G6" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="7">
@@ -3400,7 +4063,10 @@
         <v>0.0315361834075621</v>
       </c>
       <c r="F7" t="s">
-        <v>79</v>
+        <v>153</v>
+      </c>
+      <c r="G7" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="8">
@@ -3420,7 +4086,10 @@
         <v>0.00558197427835753</v>
       </c>
       <c r="F8" t="s">
-        <v>80</v>
+        <v>155</v>
+      </c>
+      <c r="G8" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="9">
@@ -3440,7 +4109,10 @@
         <v>0.0469640852571631</v>
       </c>
       <c r="F9" t="s">
-        <v>38</v>
+        <v>71</v>
+      </c>
+      <c r="G9" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="10">
@@ -3460,7 +4132,10 @@
         <v>0.0108998758996357</v>
       </c>
       <c r="F10" t="s">
-        <v>81</v>
+        <v>157</v>
+      </c>
+      <c r="G10" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="11">
@@ -3480,7 +4155,10 @@
         <v>0.018424468706776</v>
       </c>
       <c r="F11" t="s">
-        <v>20</v>
+        <v>35</v>
+      </c>
+      <c r="G11" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="12">
@@ -3500,7 +4178,10 @@
         <v>0.00181705431717921</v>
       </c>
       <c r="F12" t="s">
-        <v>82</v>
+        <v>159</v>
+      </c>
+      <c r="G12" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="13">
@@ -3520,7 +4201,10 @@
         <v>0.00911210646535982</v>
       </c>
       <c r="F13" t="s">
-        <v>83</v>
+        <v>161</v>
+      </c>
+      <c r="G13" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="14">
@@ -3540,7 +4224,10 @@
         <v>0.0299119390348648</v>
       </c>
       <c r="F14" t="s">
-        <v>84</v>
+        <v>163</v>
+      </c>
+      <c r="G14" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="15">
@@ -3560,7 +4247,10 @@
         <v>0.00000000000000000000000119792646469834</v>
       </c>
       <c r="F15" t="s">
-        <v>85</v>
+        <v>165</v>
+      </c>
+      <c r="G15" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="16">
@@ -3580,7 +4270,10 @@
         <v>0.0000000793662731784555</v>
       </c>
       <c r="F16" t="s">
-        <v>45</v>
+        <v>85</v>
+      </c>
+      <c r="G16" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="17">
@@ -3600,7 +4293,10 @@
         <v>0.0000000168211775709046</v>
       </c>
       <c r="F17" t="s">
-        <v>69</v>
+        <v>133</v>
+      </c>
+      <c r="G17" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="18">
@@ -3620,7 +4316,10 @@
         <v>0.0000000000000000000000000000336968559016884</v>
       </c>
       <c r="F18" t="s">
-        <v>74</v>
+        <v>143</v>
+      </c>
+      <c r="G18" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>
